--- a/tests/data/test_update_missing_metadata__not_called__required_columns_filled.xlsx
+++ b/tests/data/test_update_missing_metadata__not_called__required_columns_filled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\local_documents\GitHub Projects\PokemonExcelParser\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369A9EDC-E060-4D25-80F8-E4BD7BC5F72A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC25D13-4CE3-4A24-9881-EDA6CB94345C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78BC78BC-29BB-4F6D-966B-C0ED778393B8}"/>
   </bookViews>
@@ -38,9 +38,6 @@
     <t>Card #</t>
   </si>
   <si>
-    <t>4 Owned</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>Not Required</t>
+  </si>
+  <si>
+    <t># Owned</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,50 +420,50 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
